--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.DownUp.Test-0.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x..x]}}.DownUp.Test-0.xlsx
@@ -478,7 +478,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E11" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -530,8 +530,8 @@
         <v>60.115888888888797</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>4.9903612097374962E-2</v>
+        <f>C$9/D2</f>
+        <v>1090.144406267156</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -564,8 +564,8 @@
         <v>56.118138888888801</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>0.26729325485471417</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>1167.8042304602461</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -599,7 +599,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.0633220468668114</v>
+        <v>1106.1081006574045</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -633,7 +633,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4.2956251070396796</v>
+        <v>1103.9756525091975</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>17.361477771575995</v>
+        <v>1112.2037592964152</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>64.85773050737474</v>
+        <v>1037.9612622224186</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>253.0264692179189</v>
+        <v>1012.1522102298916</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -790,7 +790,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>48.70311735967546</v>
+        <v>1090.0499459489613</v>
       </c>
     </row>
   </sheetData>
